--- a/quora.xlsx
+++ b/quora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AD6D30-3AF0-4F0A-866F-50FC7EA06F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41371A4C-12F4-4635-8DA8-A5F891B2389F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20268" yWindow="204" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>记忆标记</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,100 @@
   </si>
   <si>
     <t>释义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人紧张不安的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intimidating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.表示警告的，v.警告,警惕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.标识牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>due to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prep.由于,应归于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.大的；n.大号；adv.夸大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>population </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.人口，人口数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj独一无二的，独特的；n独一无二的人或事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n路，公路，途径，方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nearby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv附近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>adj诚实的；adv真的，确实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outbreak </t>
+  </si>
+  <si>
+    <t>n爆发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +151,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF282829"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -97,11 +197,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -382,17 +483,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -404,6 +505,102 @@
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/quora.xlsx
+++ b/quora.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41371A4C-12F4-4635-8DA8-A5F891B2389F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89FAD46-49F3-4C6A-A048-B8C11A929037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20268" yWindow="204" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>记忆标记</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +131,220 @@
   </si>
   <si>
     <t>n爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hire</t>
+  </si>
+  <si>
+    <t>v租用，聘用；n租借，雇员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affable </t>
+  </si>
+  <si>
+    <t>adj和蔼可亲的，平易近人的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>adj晚的，接近末期的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v闲聊，交谈，聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>n航线，疗程，进展；v快速的流动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rural </t>
+  </si>
+  <si>
+    <t>adj乡村的，农村的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rather </t>
+  </si>
+  <si>
+    <t>adv相当的，相反，而不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strongly </t>
+  </si>
+  <si>
+    <t>adv强烈地，浓烈地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accented</t>
+  </si>
+  <si>
+    <t>adj带有他乡腔调地；v着重，强调，突出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradually </t>
+  </si>
+  <si>
+    <t>adv逐步地，逐渐地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accustomed </t>
+  </si>
+  <si>
+    <t>adj习惯的，习惯于；v习惯于，适应于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overheard </t>
+  </si>
+  <si>
+    <t>v偶然听到，无意中听到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialect </t>
+  </si>
+  <si>
+    <t>n地方话，方言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n雕像，塑像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>statue </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n仪表板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discussions</t>
+  </si>
+  <si>
+    <t>n讨论，商讨，详述，论述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>praise </t>
+  </si>
+  <si>
+    <t>n.v赞扬，称赞，赞美，歌颂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poverty </t>
+  </si>
+  <si>
+    <t>n贫穷，贫困，短缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v提及，举例，引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditions </t>
+  </si>
+  <si>
+    <t>n状况，条件；v使适应，习惯于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arguably </t>
+  </si>
+  <si>
+    <t>adv可论证地，按理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>past </t>
+  </si>
+  <si>
+    <t>adj过去的；n过去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contend</t>
+  </si>
+  <si>
+    <t>v竞争，声称，主张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centered </t>
+  </si>
+  <si>
+    <t>v集中，把、、、聚集在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mess </t>
+  </si>
+  <si>
+    <t>n混乱，杂乱，肮胀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>havoc </t>
+  </si>
+  <si>
+    <t>n灾害，祸害，浩劫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>considered</t>
+  </si>
+  <si>
+    <t>adj经过深思熟虑的；v思考，认为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debate </t>
+  </si>
+  <si>
+    <t>n.v讨论，辩论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v适合；n西装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appropriate </t>
+  </si>
+  <si>
+    <t>adj适当的、合适的、恰当的；v盗用，挪用，占用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +701,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -608,4 +823,276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92925B34-707B-456B-B9EA-1F889A19B12D}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>